--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -9,27 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="具有相當價值之財產" sheetId="12" r:id="rId12"/>
-    <sheet name="保險" sheetId="13" r:id="rId13"/>
-    <sheet name="債權" sheetId="14" r:id="rId14"/>
-    <sheet name="債務" sheetId="15" r:id="rId15"/>
-    <sheet name="事業投資" sheetId="16" r:id="rId16"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="276">
   <si>
     <t>土地坐落</t>
   </si>
@@ -721,45 +710,24 @@
     <t>(原持分 1592/10000, 出售 796/10000)</t>
   </si>
   <si>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
     <t>種類</t>
   </si>
   <si>
-    <t>總嘴數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行古亭支 庫</t>
   </si>
   <si>
@@ -799,16 +767,31 @@
     <t>美金</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
   </si>
   <si>
     <t>陽信商銀</t>
@@ -826,79 +809,16 @@
     <t>鼎大科技</t>
   </si>
   <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項/</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
+    <t>2011-11-14</t>
+  </si>
+  <si>
+    <t>債務人</t>
+  </si>
+  <si>
+    <t>債權人及地址</t>
+  </si>
+  <si>
+    <t>餘額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
@@ -907,15 +827,6 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
     <t>土地-抵押權</t>
   </si>
   <si>
@@ -935,18 +846,6 @@
   </si>
   <si>
     <t>抵押借款</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
 </sst>
 </file>
@@ -3315,307 +3214,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>221</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="2">
-        <v>95000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>222</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="2">
-        <v>32800000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
@@ -4536,138 +4134,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4676,22 +4142,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4699,13 +4165,13 @@
         <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>121</v>
@@ -4720,13 +4186,13 @@
         <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>121</v>
@@ -4741,13 +4207,13 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>120</v>
@@ -4762,13 +4228,13 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>121</v>
@@ -4783,13 +4249,13 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>121</v>
@@ -4804,13 +4270,13 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>121</v>
@@ -4825,13 +4291,13 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>120</v>
@@ -4846,13 +4312,13 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>120</v>
@@ -4867,13 +4333,13 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>120</v>
@@ -4888,13 +4354,13 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>120</v>
@@ -4909,13 +4375,13 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>121</v>
@@ -4930,13 +4396,13 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>121</v>
@@ -4951,13 +4417,13 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>121</v>
@@ -4972,13 +4438,13 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>121</v>
@@ -4993,13 +4459,13 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>121</v>
@@ -5014,13 +4480,13 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>121</v>
@@ -5037,9 +4503,275 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>179</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7179892</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="2">
+        <v>71798920</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4950000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="2">
+        <v>49500000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3232655</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="2">
+        <v>32326550</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="2">
+        <v>70000000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29920000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="2">
+        <v>299200000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1036728</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10367280</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2">
+        <v>491728</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4917280</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5047,222 +4779,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7179892</v>
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G2" s="2">
-        <v>71798920</v>
+        <v>273</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="2">
-        <v>4950000</v>
+      <c r="D3" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="2">
-        <v>49500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>181</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3232655</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" s="2">
-        <v>32326550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>182</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7000000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" s="2">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>183</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="2">
-        <v>29920000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="2">
-        <v>299200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>184</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1036728</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10367280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>185</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="2">
-        <v>491728</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4917280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>241</v>
+        <v>274</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="278">
   <si>
     <t>土地坐落</t>
   </si>
@@ -785,6 +785,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -807,6 +810,9 @@
   </si>
   <si>
     <t>鼎大科技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-14</t>
@@ -4505,13 +4511,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>249</v>
       </c>
@@ -4539,13 +4545,16 @@
       <c r="J1" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -4563,21 +4572,24 @@
         <v>71798920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="2">
+        <v>265</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="2">
         <v>1384</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
@@ -4595,21 +4607,24 @@
         <v>49500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="2">
+        <v>265</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="2">
         <v>1384</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -4627,21 +4642,24 @@
         <v>32326550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="2">
+        <v>265</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="2">
         <v>1384</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>121</v>
@@ -4659,21 +4677,24 @@
         <v>70000000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="2">
+        <v>265</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="2">
         <v>1384</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>121</v>
@@ -4691,21 +4712,24 @@
         <v>299200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="2">
+        <v>265</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="2">
         <v>1384</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>121</v>
@@ -4723,21 +4747,24 @@
         <v>10367280</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="2">
+        <v>265</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="2">
         <v>1384</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>121</v>
@@ -4755,12 +4782,15 @@
         <v>4917280</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="2">
+        <v>265</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="2">
         <v>1384</v>
       </c>
     </row>
@@ -4782,19 +4812,19 @@
         <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4802,22 +4832,22 @@
         <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E2" s="2">
         <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4825,22 +4855,22 @@
         <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E3" s="2">
         <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="283">
   <si>
     <t>土地坐落</t>
   </si>
@@ -788,6 +788,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -797,6 +800,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>陽信商銀</t>
   </si>
   <si>
@@ -815,7 +824,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-14</t>
+  </si>
+  <si>
+    <t>tmp7f9c1</t>
   </si>
   <si>
     <t>債務人</t>
@@ -4511,13 +4526,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>249</v>
       </c>
@@ -4548,13 +4563,22 @@
       <c r="K1" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>120</v>
@@ -4572,24 +4596,33 @@
         <v>71798920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="2">
+        <v>269</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="2">
         <v>1384</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
@@ -4607,24 +4640,33 @@
         <v>49500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="2">
+        <v>269</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="2">
         <v>1384</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>121</v>
@@ -4642,24 +4684,33 @@
         <v>32326550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="2">
+        <v>269</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="2">
         <v>1384</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>121</v>
@@ -4677,24 +4728,33 @@
         <v>70000000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="2">
+        <v>269</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="2">
         <v>1384</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>121</v>
@@ -4712,24 +4772,33 @@
         <v>299200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="2">
+        <v>269</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="2">
         <v>1384</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N6" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>121</v>
@@ -4747,24 +4816,33 @@
         <v>10367280</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="2">
+        <v>269</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="2">
         <v>1384</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N7" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>121</v>
@@ -4782,16 +4860,25 @@
         <v>4917280</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="2">
+        <v>269</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="2">
         <v>1384</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="2">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4812,19 +4899,19 @@
         <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4832,22 +4919,22 @@
         <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2">
         <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4855,22 +4942,22 @@
         <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2">
         <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,9 +18,588 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="283">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="287">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市三芝區土地公埔段八連溪頭小段01600027地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段一小段03460000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段二小段06030000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段一小段03600000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段一小段06700000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段二小段00670000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段02110000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段05910000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段02650000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段02660000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段00270000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段02730000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區百齡段三小段06240000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段02400000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段02510000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段02520000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段02530000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段03360000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段03460000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段03410000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段二小段03440000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段00220000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段00230000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段四小段06050000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段四小段06550010地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段四小段05950000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段四小段06040002地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區天母段一小段01990000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區文林段三小段00530000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區文林段三小段00610000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區文林段三小段00920000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區文林段三小段02610003地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區新安段三小段05180000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區新安段三小段05180001地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段02940000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段02950000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段02960000地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區橫科段橫科小段07020004地號</t>
+  </si>
+  <si>
+    <t>新北市汐止區橫科段橫科小段07020005地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段01770000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段01730000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區溪洲段一小段00260000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區溪洲段一小段00260001地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區溪洲段一小段00270000地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區富安段一小段01970000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興安段一小段04110000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興安段一小段04110002地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興安段一小段04110004地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興安段一小段04480001地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興安段一小段04480003地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區興泰段三小段03760000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段一小段01350000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市北勢段06060002地號</t>
+  </si>
+  <si>
+    <t>臺北市士林區百齡段三小段00450002地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00680000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00730000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00750000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00790000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00790001地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00800000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00820000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00830000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00840000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00850000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00860000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00870000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00920000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段00950000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段01000000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段04690000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段04810000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段04820000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段04550000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段04900000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段04900001地號</t>
+  </si>
+  <si>
+    <t>10000分之111</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>5分之2</t>
+  </si>
+  <si>
+    <t>18分之1</t>
+  </si>
+  <si>
+    <t>840000分之16303</t>
+  </si>
+  <si>
+    <t>10000分之1002</t>
+  </si>
+  <si>
+    <t>10000分之932</t>
+  </si>
+  <si>
+    <t>18分之2</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>10000分之6466</t>
+  </si>
+  <si>
+    <t>10000分之</t>
+  </si>
+  <si>
+    <t>10000分之1118</t>
+  </si>
+  <si>
+    <t>10000分之5355</t>
+  </si>
+  <si>
+    <t>31590分之19961</t>
+  </si>
+  <si>
+    <t>25272分之23301</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>100000分之10859</t>
+  </si>
+  <si>
+    <t>100000分之12849</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>40分之3</t>
+  </si>
+  <si>
+    <t>10000分之417</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>30000分之22500</t>
+  </si>
+  <si>
+    <t>15分之1</t>
+  </si>
+  <si>
+    <t>30000分之1023</t>
+  </si>
+  <si>
+    <t>30000分之2416</t>
+  </si>
+  <si>
+    <t>30000分之4096</t>
+  </si>
+  <si>
+    <t>30000分之125</t>
+  </si>
+  <si>
+    <t>10000分之411</t>
+  </si>
+  <si>
+    <t>10000分之8954</t>
+  </si>
+  <si>
+    <t>10000分之522</t>
+  </si>
+  <si>
+    <t>10000分之2</t>
+  </si>
+  <si>
+    <t>3分之2</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>全部+</t>
+  </si>
+  <si>
+    <t>1000分之577</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>陳勝宏</t>
+  </si>
+  <si>
+    <t>薛凌</t>
+  </si>
+  <si>
+    <t>88年08月23日</t>
+  </si>
+  <si>
+    <t>60年08月17日</t>
+  </si>
+  <si>
+    <t>56年11月02日</t>
+  </si>
+  <si>
+    <t>91年07月11曰</t>
+  </si>
+  <si>
+    <t>91年05月27日</t>
+  </si>
+  <si>
+    <t>77年12月14日</t>
+  </si>
+  <si>
+    <t>98年01月08日</t>
+  </si>
+  <si>
+    <t>99年06月</t>
+  </si>
+  <si>
+    <t>97年02月04日</t>
+  </si>
+  <si>
+    <t>98年11月25日</t>
+  </si>
+  <si>
+    <t>95年12月07日</t>
+  </si>
+  <si>
+    <t>99年06月21曰</t>
+  </si>
+  <si>
+    <t>98年09月10日</t>
+  </si>
+  <si>
+    <t>96年03月29日</t>
+  </si>
+  <si>
+    <t>99年04月26日</t>
+  </si>
+  <si>
+    <t>79年07月23日</t>
+  </si>
+  <si>
+    <t>77年05月06日</t>
+  </si>
+  <si>
+    <t>76年07月14日</t>
+  </si>
+  <si>
+    <t>79年03月08日</t>
+  </si>
+  <si>
+    <t>76年07月04日</t>
+  </si>
+  <si>
+    <t>83年07月13日</t>
+  </si>
+  <si>
+    <t>83年04月27日</t>
+  </si>
+  <si>
+    <t>82年04月07日</t>
+  </si>
+  <si>
+    <t>79年02月20日</t>
+  </si>
+  <si>
+    <t>86年09月08日</t>
+  </si>
+  <si>
+    <t>86年10月16日</t>
+  </si>
+  <si>
+    <t>79年05月08日</t>
+  </si>
+  <si>
+    <t>73年01月24日</t>
+  </si>
+  <si>
+    <t>73年01月20日</t>
+  </si>
+  <si>
+    <t>85年09月10日</t>
+  </si>
+  <si>
+    <t>100年05月17曰</t>
+  </si>
+  <si>
+    <t>89年05月15日</t>
+  </si>
+  <si>
+    <t>95年02月15日</t>
+  </si>
+  <si>
+    <t>98年08月31日</t>
+  </si>
+  <si>
+    <t>99年01月08日</t>
+  </si>
+  <si>
+    <t>96年05月10日</t>
+  </si>
+  <si>
+    <t>96年12月27日</t>
+  </si>
+  <si>
+    <t>98年12月29日</t>
+  </si>
+  <si>
+    <t>96年01月30日</t>
+  </si>
+  <si>
+    <t>99年02月05日</t>
+  </si>
+  <si>
+    <t>96年01月25日</t>
+  </si>
+  <si>
+    <t>96年1月25日</t>
+  </si>
+  <si>
+    <t>96年01月29日</t>
+  </si>
+  <si>
+    <t>98年12月28日</t>
+  </si>
+  <si>
+    <t>95年12月05日</t>
+  </si>
+  <si>
+    <t>100年03月16曰</t>
+  </si>
+  <si>
+    <t>98年04月01曰</t>
+  </si>
+  <si>
+    <t>98年03月10曰</t>
+  </si>
+  <si>
+    <t>99年09月29日</t>
+  </si>
+  <si>
+    <t>99年08月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>合併</t>
+  </si>
+  <si>
+    <t>逕為分割</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝万年)</t>
+  </si>
+  <si>
+    <t>(原分410000出售210000)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-14</t>
+  </si>
+  <si>
+    <t>tmp7f9c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,664 +620,136 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市三芝區土地公埔段八連 溪頭小段0160-0027地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段一小段 0346-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段二小段 0603-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段一小段 0360-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段一小段 0670-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段二小段 0067-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段 0211-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段 0591-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段 0265-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段 0266-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段 0027-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段 0273-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區百齡段三小段 0624-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0240-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0251-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0252-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0253-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0336-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0346-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0341-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段二小段 0344-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段 0022-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段 0023-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段四小段 0605-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段四小段 0655-0010 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段四小段 0595-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段四小段 0604-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區天母段一小段 0199-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區文林段三小段 0053-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區文林段三小段 0061-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區文林段三小段 0092-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區文林段三小段 0261-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區新安段三小段 0518-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區新安段三小段 0518-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段 0294-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段 0295-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段 0296-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區橫科段橫科小段 0702-0004 地號</t>
-  </si>
-  <si>
-    <t>新北市汐止區橫科段橫科小段 0702-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 0177-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 0173-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區溪洲段一小段 0026-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區溪洲段一小段 0026-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區溪洲段一小段 0027-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區富安段一小段 0197-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興安段一小段 0411-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興安段一小段 0411-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興安段一小段 0411-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興安段一小段 0448-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興安段一小段 0448-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區興泰段三小段 0376-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段一小段 0135-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市北勢段0606-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市士林區百齡段三小段 0045-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0068-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0073-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0075-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0079-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0079-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0080-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0082-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0083-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0084-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0085-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0086-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0087-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0092-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0095-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 0100-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 0469-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 0481-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 0482-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 0455-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 0490-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 0490-0001 地號</t>
-  </si>
-  <si>
-    <t>10000分之 111</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>5分之2</t>
-  </si>
-  <si>
-    <t>18分之1</t>
-  </si>
-  <si>
-    <t>840000 分 之 16303</t>
-  </si>
-  <si>
-    <t>10000分之 1002</t>
-  </si>
-  <si>
-    <t>10000分之 932</t>
-  </si>
-  <si>
-    <t>18分之2</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>10000分之 6466</t>
-  </si>
-  <si>
-    <t>10000分之</t>
-  </si>
-  <si>
-    <t>10000分之 1118</t>
-  </si>
-  <si>
-    <t>10000分之 5355</t>
-  </si>
-  <si>
-    <t>31590分之 19961</t>
-  </si>
-  <si>
-    <t>25272分之 23301</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>100000 分 之 10859</t>
-  </si>
-  <si>
-    <t>100000 分 之12849</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>40分之3</t>
-  </si>
-  <si>
-    <t>10000分之 417</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>30000分之 22500</t>
-  </si>
-  <si>
-    <t>15分之1</t>
-  </si>
-  <si>
-    <t>30000分之 1023</t>
-  </si>
-  <si>
-    <t>30000分之 2416</t>
-  </si>
-  <si>
-    <t>30000分之 4096</t>
-  </si>
-  <si>
-    <t>30000分之 125</t>
-  </si>
-  <si>
-    <t>10000分之 411</t>
-  </si>
-  <si>
-    <t>10000分之 8954</t>
-  </si>
-  <si>
-    <t>10000分之 522</t>
-  </si>
-  <si>
-    <t>10000分之 2</t>
-  </si>
-  <si>
-    <t>3分之2</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>全部+</t>
-  </si>
-  <si>
-    <t>1000分之 577</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>陳勝宏</t>
-  </si>
-  <si>
-    <t>薛凌</t>
-  </si>
-  <si>
-    <t>88年08月 23日</t>
-  </si>
-  <si>
-    <t>60年08月 17日</t>
-  </si>
-  <si>
-    <t>56年11月 02日</t>
-  </si>
-  <si>
-    <t>91年07月 11曰</t>
-  </si>
-  <si>
-    <t>91年05月 27日</t>
-  </si>
-  <si>
-    <t>77年12月 14日</t>
-  </si>
-  <si>
-    <t>98年01月 08日</t>
-  </si>
-  <si>
-    <t>99年06月</t>
-  </si>
-  <si>
-    <t>97年02月 04日</t>
-  </si>
-  <si>
-    <t>98年11月 25日</t>
-  </si>
-  <si>
-    <t>95年12月 07日</t>
-  </si>
-  <si>
-    <t>99年06月 21曰</t>
-  </si>
-  <si>
-    <t>98年09月 10日</t>
-  </si>
-  <si>
-    <t>96年03月 29日</t>
-  </si>
-  <si>
-    <t>99年04月 26日</t>
-  </si>
-  <si>
-    <t>79年07月 23日</t>
-  </si>
-  <si>
-    <t>77年05月 06日</t>
-  </si>
-  <si>
-    <t>76年07月 14日</t>
-  </si>
-  <si>
-    <t>79年03月 08日</t>
-  </si>
-  <si>
-    <t>76年07月 04日</t>
-  </si>
-  <si>
-    <t>83年07月 13日</t>
-  </si>
-  <si>
-    <t>83年04月 27日</t>
-  </si>
-  <si>
-    <t>82年04月 07日</t>
-  </si>
-  <si>
-    <t>79年02月 20日</t>
-  </si>
-  <si>
-    <t>86年09月 08日</t>
-  </si>
-  <si>
-    <t>86年10月 16日</t>
-  </si>
-  <si>
-    <t>79年05月 08日</t>
-  </si>
-  <si>
-    <t>73年01月 24日</t>
-  </si>
-  <si>
-    <t>73年01月 20日</t>
-  </si>
-  <si>
-    <t>85年09月 10日</t>
-  </si>
-  <si>
-    <t>100 年 05 月17曰</t>
-  </si>
-  <si>
-    <t>89年05月 15日</t>
-  </si>
-  <si>
-    <t>95年02月 15日</t>
-  </si>
-  <si>
-    <t>98年08月 31日</t>
-  </si>
-  <si>
-    <t>99年01月 08日</t>
-  </si>
-  <si>
-    <t>96年05月 10日</t>
-  </si>
-  <si>
-    <t>96年12月 27日</t>
-  </si>
-  <si>
-    <t>98年12月 29日</t>
-  </si>
-  <si>
-    <t>96年01月 30日</t>
-  </si>
-  <si>
-    <t>99年02月 05日</t>
-  </si>
-  <si>
-    <t>96年01月 25日</t>
-  </si>
-  <si>
-    <t>96年1月 25日</t>
-  </si>
-  <si>
-    <t>96年01月 29日</t>
-  </si>
-  <si>
-    <t>98年12月 28日</t>
-  </si>
-  <si>
-    <t>95年12月 05日</t>
-  </si>
-  <si>
-    <t>100 年 03 月16曰</t>
-  </si>
-  <si>
-    <t>98年04月 01曰</t>
-  </si>
-  <si>
-    <t>98年03月 10曰</t>
-  </si>
-  <si>
-    <t>99年09月 29日</t>
-  </si>
-  <si>
-    <t>99年08月 25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>分割</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>合併</t>
-  </si>
-  <si>
-    <t>逕為分割</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝万年)</t>
-  </si>
-  <si>
-    <t>(原分 4/10000，出售 2/10000)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>臺北市士林區永新段二小段</t>
   </si>
   <si>
-    <t>臺北市士林區永新段二小段 20152-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段二小段 20153-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段二小段 20154-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段 31119-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段 31118-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段 30368-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段 30369-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段 10188-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段 10218-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段 10219-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 11357-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 11364-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段 11365-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段一小段 02026-000 建號</t>
+    <t>臺北市士林區永新段二小段20152000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段二小段20153000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段二小段20154000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段31119000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段31118000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段30368000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段30369000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段10188000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段10218000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段10219000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段11357000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段11364000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段11365000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段一小段02026000建號</t>
   </si>
   <si>
     <t>臺北市士林區仰德大道</t>
   </si>
   <si>
-    <t>臺北市北投區崇仰段三小段 30794-000 建號 _</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30783-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30784-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30787-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30788-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30796-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30797-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30798-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30799-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30800-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市;it投區崇仰段三小段 30801-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30802-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30803-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30743-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30830-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30737-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段 30786-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段 00132-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 796</t>
+    <t>臺北市北投區崇仰段三小段30794000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30783000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30784000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30787000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30788000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30796000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30797000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30798000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30799000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30800000建號</t>
+  </si>
+  <si>
+    <t>臺北市it投區崇仰段三小段30801000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30802000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30803000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30743000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30830000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30737000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30786000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段00132000建號</t>
+  </si>
+  <si>
+    <t>10000分之796</t>
   </si>
   <si>
     <t>69年10月</t>
   </si>
   <si>
-    <t>69年10月 28日</t>
-  </si>
-  <si>
-    <t>77年11月 29日</t>
-  </si>
-  <si>
-    <t>71年11月 26日</t>
-  </si>
-  <si>
-    <t>96年02月 02日</t>
-  </si>
-  <si>
-    <t>%年01月 25日</t>
-  </si>
-  <si>
-    <t>96年06月 08日</t>
-  </si>
-  <si>
-    <t>96年03月 26日</t>
-  </si>
-  <si>
-    <t>99年10月 18曰</t>
+    <t>69年10月28日</t>
+  </si>
+  <si>
+    <t>77年11月29日</t>
+  </si>
+  <si>
+    <t>71年11月26日</t>
+  </si>
+  <si>
+    <t>96年02月02日</t>
+  </si>
+  <si>
+    <t>%年01月25日</t>
+  </si>
+  <si>
+    <t>96年06月08日</t>
+  </si>
+  <si>
+    <t>96年03月26日</t>
+  </si>
+  <si>
+    <t>99年10月18曰</t>
   </si>
   <si>
     <t>買賈</t>
@@ -707,7 +758,7 @@
     <t>(超渦五年)</t>
   </si>
   <si>
-    <t>(原持分 1592/10000, 出售 796/10000)</t>
+    <t>(原持分159210000出售79610000)</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -728,7 +779,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>合作金庫商業銀行古亭支 庫</t>
+    <t>合作金庫商業銀行古亭支庫</t>
   </si>
   <si>
     <t>陽信商業銀行永和分行</t>
@@ -752,27 +803,18 @@
     <t>板信商業銀行民生分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行復興分 行</t>
+    <t>國泰世華商業銀行復興分行</t>
   </si>
   <si>
     <t>支票存款</t>
   </si>
   <si>
-    <t>支票存款 •</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -785,27 +827,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>陽信商銀</t>
   </si>
   <si>
@@ -824,15 +845,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-14</t>
-  </si>
-  <si>
-    <t>tmp7f9c1</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -848,22 +860,22 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>土地-抵押權</t>
+    <t>土地抵押權</t>
   </si>
   <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>華泰銀行 臺北市長安東路</t>
-  </si>
-  <si>
-    <t>合作金庫 臺北市和平東路</t>
-  </si>
-  <si>
-    <t>99年11月 05日</t>
-  </si>
-  <si>
-    <t>99年06月 30日</t>
+    <t>華泰銀行臺北市長安東路</t>
+  </si>
+  <si>
+    <t>合作金庫臺北市和平東路</t>
+  </si>
+  <si>
+    <t>99年11月05日</t>
+  </si>
+  <si>
+    <t>99年06月30日</t>
   </si>
   <si>
     <t>抵押借款</t>
@@ -1225,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,1981 +1265,3598 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>7149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>366</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>312</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>500</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>153</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>496.48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H15" s="2">
         <v>26677091</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>265.52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H16" s="2">
         <v>13069417</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>419</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H17" s="2">
         <v>3831855</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>3901</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H18" s="2">
         <v>173594695</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H19" s="2">
         <v>145200</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>195</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H20" s="2">
         <v>10263896</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H21" s="2">
         <v>4750372</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>112</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H22" s="2">
         <v>8489600</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H23" s="2">
         <v>16751800</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>136</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H24" s="2">
         <v>5635092</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>141</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H25" s="2">
         <v>5794994</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>1321</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>931</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O34" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>634.94</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O35" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>395.95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O37" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>131</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
         <v>121</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O39" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O40" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>56</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O41" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
         <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O42" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2">
         <v>2095</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O43" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
         <v>5991</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O44" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O45" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2">
         <v>205</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O46" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2">
         <v>3299</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2">
         <v>911</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O48" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2">
         <v>235</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O49" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2">
         <v>1289</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O50" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>1097</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O51" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O52" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2">
         <v>905</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O53" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
         <v>949</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O54" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O55" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2">
         <v>1.52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H56" s="2">
         <v>165680</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2">
         <v>73.9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H57" s="2">
         <v>10641600</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O57" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2">
         <v>80.37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H58" s="2">
         <v>11573280</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2">
         <v>74.24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H59" s="2">
         <v>9354240</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O59" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2">
         <v>9.74</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H60" s="2">
         <v>1227240</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O60" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2">
         <v>22.2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H61" s="2">
         <v>2797200</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O61" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2">
         <v>329.86</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H62" s="2">
         <v>48159560</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O62" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2">
         <v>87.24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H63" s="2">
         <v>7328160</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O63" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2">
         <v>88.1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H64" s="2">
         <v>12862600</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O64" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2">
         <v>110.58</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H65" s="2">
         <v>9288720</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O65" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2">
         <v>121.76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H66" s="2">
         <v>5113920</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O66" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2">
         <v>42.13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H67" s="2">
         <v>5308380</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O67" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2">
         <v>39.97</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H68" s="2">
         <v>5036220</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O68" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2">
         <v>630.79</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H69" s="2">
         <v>116395263</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O69" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2">
         <v>26.06</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H70" s="2">
         <v>6071980</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O70" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2">
         <v>48.38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H71" s="2">
         <v>9234822</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O71" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2">
         <v>1337</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H72" s="2">
         <v>275633246</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O72" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2">
         <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H73" s="2">
         <v>453000</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O73" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2">
         <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H74" s="2">
         <v>604000</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O74" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2">
         <v>80</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H75" s="2">
         <v>7154800</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O75" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2">
         <v>257</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H76" s="2">
         <v>4979375</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O76" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2">
         <v>35</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H77" s="2">
         <v>678125</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O77" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3245,25 +4874,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3271,25 +4900,25 @@
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2">
         <v>160.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3297,25 +4926,25 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2">
         <v>123.24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3323,25 +4952,25 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C4" s="2">
         <v>123.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3349,25 +4978,25 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2">
         <v>123.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3375,25 +5004,25 @@
         <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C6" s="2">
         <v>151.59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3401,25 +5030,25 @@
         <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2">
         <v>73.64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3427,22 +5056,22 @@
         <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2">
         <v>109.02</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2">
         <v>227000</v>
@@ -3453,22 +5082,22 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2">
         <v>109.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H9" s="2">
         <v>227000</v>
@@ -3479,25 +5108,25 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2">
         <v>370.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3505,25 +5134,25 @@
         <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C11" s="2">
         <v>94.35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3531,25 +5160,25 @@
         <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C12" s="2">
         <v>94.35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3557,25 +5186,25 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2">
         <v>94.26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3583,25 +5212,25 @@
         <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2">
         <v>108.7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3609,25 +5238,25 @@
         <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C15" s="2">
         <v>104.32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3635,25 +5264,25 @@
         <v>114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C16" s="2">
         <v>650.2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3661,22 +5290,22 @@
         <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2">
         <v>132.6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -3685,22 +5314,22 @@
         <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2">
         <v>87.13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H18" s="2">
         <v>104900</v>
@@ -3711,22 +5340,22 @@
         <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2">
         <v>85.4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H19" s="2">
         <v>132800</v>
@@ -3737,22 +5366,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2">
         <v>85.4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H20" s="2">
         <v>103900</v>
@@ -3763,22 +5392,22 @@
         <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2">
         <v>67.1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H21" s="2">
         <v>85700</v>
@@ -3789,22 +5418,22 @@
         <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2">
         <v>67.1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H22" s="2">
         <v>94800</v>
@@ -3815,22 +5444,22 @@
         <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2">
         <v>67.1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H23" s="2">
         <v>106800</v>
@@ -3841,22 +5470,22 @@
         <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2">
         <v>67.1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H24" s="2">
         <v>79100</v>
@@ -3867,22 +5496,22 @@
         <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2">
         <v>67.71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H25" s="2">
         <v>135367</v>
@@ -3893,22 +5522,22 @@
         <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2">
         <v>67.71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H26" s="2">
         <v>107800</v>
@@ -3919,22 +5548,22 @@
         <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2">
         <v>67.71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H27" s="2">
         <v>89200</v>
@@ -3945,22 +5574,22 @@
         <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2">
         <v>84.44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H28" s="2">
         <v>126900</v>
@@ -3971,22 +5600,22 @@
         <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C29" s="2">
         <v>84.44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H29" s="2">
         <v>113800</v>
@@ -3997,22 +5626,22 @@
         <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2">
         <v>84.44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H30" s="2">
         <v>107100</v>
@@ -4023,22 +5652,22 @@
         <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2">
         <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H31" s="2">
         <v>158800</v>
@@ -4049,22 +5678,22 @@
         <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2">
         <v>82.72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H32" s="2">
         <v>167600</v>
@@ -4075,22 +5704,22 @@
         <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2">
         <v>100.88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H33" s="2">
         <v>168700</v>
@@ -4101,22 +5730,22 @@
         <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2">
         <v>67.1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H34" s="2">
         <v>86800</v>
@@ -4127,22 +5756,22 @@
         <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C35" s="2">
         <v>112.8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H35" s="2">
         <v>52600</v>
@@ -4163,22 +5792,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4186,16 +5815,16 @@
         <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -4207,16 +5836,16 @@
         <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -4228,16 +5857,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -4249,16 +5878,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -4270,16 +5899,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -4291,16 +5920,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -4312,16 +5941,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -4333,16 +5962,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -4354,16 +5983,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -4375,16 +6004,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -4396,16 +6025,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -4417,16 +6046,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -4438,16 +6067,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -4459,16 +6088,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -4480,16 +6109,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -4501,16 +6130,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2">
         <v>1885.2</v>
@@ -4534,43 +6163,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4578,10 +6207,10 @@
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2">
         <v>7179892</v>
@@ -4590,28 +6219,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G2" s="2">
         <v>71798920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L2" s="2">
         <v>1384</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N2" s="2">
         <v>179</v>
@@ -4622,10 +6251,10 @@
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2">
         <v>4950000</v>
@@ -4634,28 +6263,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G3" s="2">
         <v>49500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L3" s="2">
         <v>1384</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N3" s="2">
         <v>180</v>
@@ -4666,10 +6295,10 @@
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2">
         <v>3232655</v>
@@ -4678,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G4" s="2">
         <v>32326550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L4" s="2">
         <v>1384</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N4" s="2">
         <v>181</v>
@@ -4710,10 +6339,10 @@
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2">
         <v>7000000</v>
@@ -4722,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G5" s="2">
         <v>70000000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L5" s="2">
         <v>1384</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N5" s="2">
         <v>182</v>
@@ -4754,10 +6383,10 @@
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2">
         <v>29920000</v>
@@ -4766,28 +6395,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G6" s="2">
         <v>299200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L6" s="2">
         <v>1384</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N6" s="2">
         <v>183</v>
@@ -4798,10 +6427,10 @@
         <v>184</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2">
         <v>1036728</v>
@@ -4810,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G7" s="2">
         <v>10367280</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L7" s="2">
         <v>1384</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N7" s="2">
         <v>184</v>
@@ -4842,10 +6471,10 @@
         <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2">
         <v>491728</v>
@@ -4854,28 +6483,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G8" s="2">
         <v>4917280</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L8" s="2">
         <v>1384</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="N8" s="2">
         <v>185</v>
@@ -4896,22 +6525,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4919,22 +6548,22 @@
         <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E2" s="2">
         <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4942,22 +6571,22 @@
         <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2">
         <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="267">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市三芝區土地公埔段八連溪頭小段01600027地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市士林區永新段一小段03460000地號</t>
@@ -104,7 +107,7 @@
     <t>臺北市北投區桃源段二小段02400000地號</t>
   </si>
   <si>
-    <t>臺北市北投區桃源段二小段</t>
+    <t>臺北市北投區桃源段二小段02400002地號</t>
   </si>
   <si>
     <t>臺北市北投區桃源段二小段02510000地號</t>
@@ -290,9 +293,6 @@
     <t>臺北市文山區木柵段一小段04900001地號</t>
   </si>
   <si>
-    <t>10000分之111</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>10000分之6466</t>
   </si>
   <si>
-    <t>10000分之</t>
+    <t>10000分之5909</t>
   </si>
   <si>
     <t>10000分之1118</t>
@@ -407,9 +407,6 @@
     <t>薛凌</t>
   </si>
   <si>
-    <t>88年08月23日</t>
-  </si>
-  <si>
     <t>60年08月17日</t>
   </si>
   <si>
@@ -428,7 +425,7 @@
     <t>98年01月08日</t>
   </si>
   <si>
-    <t>99年06月</t>
+    <t>99年06月21日</t>
   </si>
   <si>
     <t>97年02月04日</t>
@@ -557,12 +554,12 @@
     <t>99年08月25日</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -599,30 +596,15 @@
     <t>tmp7f9c1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市士林區永新段二小段</t>
   </si>
   <si>
+    <t>69年10月</t>
+  </si>
+  <si>
+    <t>買賈</t>
+  </si>
+  <si>
     <t>臺北市士林區永新段二小段20152000建號</t>
   </si>
   <si>
@@ -725,9 +707,6 @@
     <t>10000分之796</t>
   </si>
   <si>
-    <t>69年10月</t>
-  </si>
-  <si>
     <t>69年10月28日</t>
   </si>
   <si>
@@ -752,36 +731,21 @@
     <t>99年10月18曰</t>
   </si>
   <si>
-    <t>買賈</t>
-  </si>
-  <si>
     <t>(超渦五年)</t>
   </si>
   <si>
     <t>(原持分159210000出售79610000)</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行古亭支庫</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>陽信商業銀行永和分行</t>
   </si>
   <si>
@@ -806,12 +770,6 @@
     <t>國泰世華商業銀行復興分行</t>
   </si>
   <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -824,15 +782,12 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
+    <t>全陽建設</t>
   </si>
   <si>
     <t>陽信商銀</t>
   </si>
   <si>
-    <t>全陽建設</t>
-  </si>
-  <si>
     <t>富利陽投資</t>
   </si>
   <si>
@@ -845,40 +800,25 @@
     <t>stock</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>土地抵押權</t>
   </si>
   <si>
+    <t>華泰銀行臺北市長安東路</t>
+  </si>
+  <si>
+    <t>99年11月05日</t>
+  </si>
+  <si>
+    <t>抵押借款</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>華泰銀行臺北市長安東路</t>
-  </si>
-  <si>
     <t>合作金庫臺北市和平東路</t>
   </si>
   <si>
-    <t>99年11月05日</t>
-  </si>
-  <si>
     <t>99年06月30日</t>
-  </si>
-  <si>
-    <t>抵押借款</t>
   </si>
 </sst>
 </file>
@@ -1237,13 +1177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,19 +1226,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>7149</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>127</v>
@@ -1307,19 +1253,19 @@
         <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>128</v>
@@ -1328,24 +1274,30 @@
         <v>1384</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>127</v>
@@ -1354,19 +1306,19 @@
         <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>128</v>
@@ -1375,24 +1327,30 @@
         <v>1384</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>146.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>127</v>
@@ -1401,19 +1359,19 @@
         <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>128</v>
@@ -1422,21 +1380,27 @@
         <v>1384</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.388888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>93</v>
@@ -1445,22 +1409,22 @@
         <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>128</v>
@@ -1469,21 +1433,27 @@
         <v>1384</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.61111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>93</v>
@@ -1492,22 +1462,22 @@
         <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>128</v>
@@ -1516,24 +1486,30 @@
         <v>1384</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.94444444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>127</v>
@@ -1542,19 +1518,19 @@
         <v>132</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>128</v>
@@ -1563,45 +1539,51 @@
         <v>1384</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0194083333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.271716666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>186</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>128</v>
@@ -1610,45 +1592,51 @@
         <v>1384</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>17.3333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>128</v>
@@ -1657,45 +1645,51 @@
         <v>1384</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.1002</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>128</v>
@@ -1704,45 +1698,51 @@
         <v>1384</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0932</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>14.2596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>128</v>
@@ -1751,45 +1751,51 @@
         <v>1384</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>6.11111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>128</v>
@@ -1798,45 +1804,51 @@
         <v>1384</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>128</v>
@@ -1845,45 +1857,51 @@
         <v>1384</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>6</v>
+        <v>496.48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>186</v>
+      <c r="H14" s="2">
+        <v>26677091</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>128</v>
@@ -1892,24 +1910,30 @@
         <v>1384</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.6466</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>321.023968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>496.48</v>
+        <v>265.52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>127</v>
@@ -1921,16 +1945,16 @@
         <v>182</v>
       </c>
       <c r="H15" s="2">
-        <v>26677091</v>
+        <v>13069417</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>128</v>
@@ -1939,24 +1963,30 @@
         <v>1384</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.5909</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>156.895768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>265.52</v>
+        <v>419</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>127</v>
@@ -1965,19 +1995,19 @@
         <v>136</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H16" s="2">
-        <v>13069417</v>
+        <v>3831855</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>128</v>
@@ -1986,24 +2016,30 @@
         <v>1384</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.1118</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>46.8442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>419</v>
+        <v>3901</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>127</v>
@@ -2012,19 +2048,19 @@
         <v>137</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H17" s="2">
-        <v>3831855</v>
+        <v>173594695</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>128</v>
@@ -2033,24 +2069,30 @@
         <v>1384</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.5355</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2088.9855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>3901</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>127</v>
@@ -2059,19 +2101,19 @@
         <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H18" s="2">
-        <v>173594695</v>
+        <v>145200</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>128</v>
@@ -2080,24 +2122,30 @@
         <v>1384</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O18" s="2">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>127</v>
@@ -2109,16 +2157,16 @@
         <v>179</v>
       </c>
       <c r="H19" s="2">
-        <v>145200</v>
+        <v>10263896</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>128</v>
@@ -2127,24 +2175,30 @@
         <v>1384</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O19" s="2">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.631877176321621</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>123.216049382716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>127</v>
@@ -2156,16 +2210,16 @@
         <v>179</v>
       </c>
       <c r="H20" s="2">
-        <v>10263896</v>
+        <v>4750372</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>128</v>
@@ -2174,24 +2228,30 @@
         <v>1384</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O20" s="2">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.922008547008547</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>57.1645299145299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>127</v>
@@ -2203,16 +2263,16 @@
         <v>179</v>
       </c>
       <c r="H21" s="2">
-        <v>4750372</v>
+        <v>8489600</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>128</v>
@@ -2221,21 +2281,27 @@
         <v>1384</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O21" s="2">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>91</v>
@@ -2244,22 +2310,22 @@
         <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="2">
-        <v>8489600</v>
+        <v>16751800</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>128</v>
@@ -2268,24 +2334,30 @@
         <v>1384</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O22" s="2">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>127</v>
@@ -2297,16 +2369,16 @@
         <v>179</v>
       </c>
       <c r="H23" s="2">
-        <v>16751800</v>
+        <v>5635092</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>128</v>
@@ -2315,21 +2387,27 @@
         <v>1384</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O23" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>105</v>
@@ -2338,22 +2416,22 @@
         <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="2">
-        <v>5635092</v>
+        <v>5794994</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>128</v>
@@ -2362,45 +2440,51 @@
         <v>1384</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O24" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="2">
-        <v>141</v>
+        <v>1321</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5794994</v>
+        <v>182</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>128</v>
@@ -2409,24 +2493,30 @@
         <v>1384</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O25" s="2">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.10859</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>143.44739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" s="2">
-        <v>1321</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>128</v>
@@ -2435,19 +2525,19 @@
         <v>144</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>128</v>
@@ -2456,118 +2546,136 @@
         <v>1384</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O26" s="2">
+        <v>39</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>931</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.12849</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>119.62419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O27" s="2">
+      <c r="G28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>931</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O28" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C29" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>128</v>
@@ -2576,19 +2684,19 @@
         <v>146</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>128</v>
@@ -2597,24 +2705,30 @@
         <v>1384</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O29" s="2">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>7.16666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C30" s="2">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>128</v>
@@ -2623,19 +2737,19 @@
         <v>147</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>128</v>
@@ -2644,45 +2758,51 @@
         <v>1384</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O30" s="2">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.075</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>128</v>
@@ -2691,45 +2811,51 @@
         <v>1384</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O31" s="2">
+        <v>44</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.0417</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.0834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>128</v>
@@ -2738,21 +2864,27 @@
         <v>1384</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O32" s="2">
+        <v>45</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>91</v>
@@ -2761,22 +2893,22 @@
         <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>128</v>
@@ -2785,21 +2917,27 @@
         <v>1384</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O33" s="2">
+        <v>46</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C34" s="2">
-        <v>103</v>
+        <v>634.94</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>91</v>
@@ -2814,16 +2952,16 @@
         <v>179</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>128</v>
@@ -2832,21 +2970,27 @@
         <v>1384</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O34" s="2">
+        <v>47</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>634.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C35" s="2">
-        <v>634.94</v>
+        <v>395.95</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>91</v>
@@ -2855,22 +2999,22 @@
         <v>128</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>128</v>
@@ -2879,24 +3023,30 @@
         <v>1384</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O35" s="2">
+        <v>48</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>395.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C36" s="2">
-        <v>395.95</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>128</v>
@@ -2908,16 +3058,16 @@
         <v>179</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>128</v>
@@ -2926,21 +3076,27 @@
         <v>1384</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O36" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>111</v>
@@ -2949,22 +3105,22 @@
         <v>128</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>128</v>
@@ -2973,71 +3129,83 @@
         <v>1384</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O37" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2">
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38" s="2">
+        <v>52</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
         <v>53</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2">
-        <v>131</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O38" s="2">
+      <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C39" s="2">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>128</v>
@@ -3049,16 +3217,16 @@
         <v>179</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>128</v>
@@ -3067,21 +3235,27 @@
         <v>1384</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O39" s="2">
+        <v>53</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>55</v>
-      </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>112</v>
@@ -3090,22 +3264,22 @@
         <v>128</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>128</v>
@@ -3114,24 +3288,30 @@
         <v>1384</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O40" s="2">
+        <v>54</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>56</v>
-      </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>128</v>
@@ -3140,19 +3320,19 @@
         <v>151</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>128</v>
@@ -3161,71 +3341,83 @@
         <v>1384</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O41" s="2">
+        <v>55</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2095</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O42" s="2">
+        <v>56</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0.0341</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>71.4395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
         <v>57</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="2">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O42" s="2">
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
-        <v>58</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C43" s="2">
-        <v>2095</v>
+        <v>5991</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>128</v>
@@ -3234,19 +3426,19 @@
         <v>152</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>128</v>
@@ -3255,21 +3447,27 @@
         <v>1384</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O43" s="2">
+        <v>57</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1497.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>59</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2">
-        <v>5991</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>105</v>
@@ -3278,22 +3476,22 @@
         <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>128</v>
@@ -3302,21 +3500,27 @@
         <v>1384</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O44" s="2">
+        <v>58</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>60</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>105</v>
@@ -3325,22 +3529,22 @@
         <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>128</v>
@@ -3349,24 +3553,30 @@
         <v>1384</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O45" s="2">
+        <v>59</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>61</v>
-      </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2">
-        <v>205</v>
+        <v>3299</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>128</v>
@@ -3378,16 +3588,16 @@
         <v>179</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>128</v>
@@ -3396,24 +3606,30 @@
         <v>1384</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O46" s="2">
+        <v>60</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>62</v>
-      </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2">
-        <v>3299</v>
+        <v>911</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>128</v>
@@ -3422,19 +3638,19 @@
         <v>154</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>128</v>
@@ -3443,118 +3659,136 @@
         <v>1384</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O47" s="2">
+        <v>61</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.0805333333333333</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>73.3658666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="2">
+        <v>235</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O48" s="2">
+        <v>62</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.136533333333333</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>32.0853333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
         <v>63</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="2">
-        <v>911</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O48" s="2">
+      <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1">
+      <c r="C49" s="2">
+        <v>1289</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O49" s="2">
+        <v>63</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.00416666666666667</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>5.37083333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
         <v>64</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="2">
-        <v>235</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O49" s="2">
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>65</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C50" s="2">
-        <v>1289</v>
+        <v>1097</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>128</v>
@@ -3563,19 +3797,19 @@
         <v>155</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>128</v>
@@ -3584,24 +3818,30 @@
         <v>1384</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O50" s="2">
+        <v>64</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.0411</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>45.0867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>66</v>
-      </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2">
-        <v>1097</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>128</v>
@@ -3613,16 +3853,16 @@
         <v>179</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>128</v>
@@ -3631,24 +3871,30 @@
         <v>1384</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O51" s="2">
+        <v>65</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.8954</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>3.5816</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>67</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2">
-        <v>4</v>
+        <v>905</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>128</v>
@@ -3660,16 +3906,16 @@
         <v>179</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>128</v>
@@ -3678,24 +3924,30 @@
         <v>1384</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O52" s="2">
+        <v>66</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.0522</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>47.241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>68</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2">
-        <v>905</v>
+        <v>949</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>128</v>
@@ -3707,16 +3959,16 @@
         <v>179</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>128</v>
@@ -3725,24 +3977,30 @@
         <v>1384</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O53" s="2">
+        <v>67</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0.1898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>69</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2">
-        <v>949</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>128</v>
@@ -3751,19 +4009,19 @@
         <v>159</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>128</v>
@@ -3772,21 +4030,27 @@
         <v>1384</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O54" s="2">
+        <v>68</v>
+      </c>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>70</v>
-      </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2">
-        <v>17</v>
+        <v>1.52</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>91</v>
@@ -3798,19 +4062,19 @@
         <v>160</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="H55" s="2">
+        <v>165680</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>128</v>
@@ -3819,21 +4083,27 @@
         <v>1384</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O55" s="2">
+        <v>69</v>
+      </c>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>71</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2">
-        <v>1.52</v>
+        <v>73.9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>91</v>
@@ -3848,16 +4118,16 @@
         <v>179</v>
       </c>
       <c r="H56" s="2">
-        <v>165680</v>
+        <v>10641600</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>128</v>
@@ -3866,21 +4136,27 @@
         <v>1384</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O56" s="2">
+        <v>70</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>73.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>72</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2">
-        <v>73.9</v>
+        <v>80.37</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>91</v>
@@ -3895,16 +4171,16 @@
         <v>179</v>
       </c>
       <c r="H57" s="2">
-        <v>10641600</v>
+        <v>11573280</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>128</v>
@@ -3913,21 +4189,27 @@
         <v>1384</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O57" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2">
-        <v>80.37</v>
+        <v>74.24</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>91</v>
@@ -3942,16 +4224,16 @@
         <v>179</v>
       </c>
       <c r="H58" s="2">
-        <v>11573280</v>
+        <v>9354240</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>128</v>
@@ -3960,21 +4242,27 @@
         <v>1384</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O58" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>74.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>74.24</v>
+        <v>9.74</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>91</v>
@@ -3986,19 +4274,19 @@
         <v>164</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H59" s="2">
-        <v>9354240</v>
+        <v>1227240</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>128</v>
@@ -4007,21 +4295,27 @@
         <v>1384</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O59" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>76</v>
-      </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
-        <v>9.74</v>
+        <v>22.2</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>91</v>
@@ -4030,22 +4324,22 @@
         <v>128</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H60" s="2">
-        <v>1227240</v>
+        <v>2797200</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>128</v>
@@ -4054,21 +4348,27 @@
         <v>1384</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O60" s="2">
+        <v>75</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>77</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2">
-        <v>22.2</v>
+        <v>329.86</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>91</v>
@@ -4080,19 +4380,19 @@
         <v>165</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H61" s="2">
-        <v>2797200</v>
+        <v>48159560</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>128</v>
@@ -4101,24 +4401,30 @@
         <v>1384</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O61" s="2">
+        <v>76</v>
+      </c>
+      <c r="P61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>329.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>78</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2">
-        <v>329.86</v>
+        <v>87.24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>128</v>
@@ -4127,19 +4433,19 @@
         <v>166</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H62" s="2">
-        <v>48159560</v>
+        <v>7328160</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>128</v>
@@ -4148,24 +4454,30 @@
         <v>1384</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>58.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>79</v>
-      </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2">
-        <v>87.24</v>
+        <v>88.1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>128</v>
@@ -4177,16 +4489,16 @@
         <v>179</v>
       </c>
       <c r="H63" s="2">
-        <v>7328160</v>
+        <v>12862600</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>128</v>
@@ -4195,24 +4507,30 @@
         <v>1384</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="2">
+        <v>78</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>80</v>
-      </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2">
-        <v>88.1</v>
+        <v>110.58</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>128</v>
@@ -4224,16 +4542,16 @@
         <v>179</v>
       </c>
       <c r="H64" s="2">
-        <v>12862600</v>
+        <v>9288720</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>128</v>
@@ -4242,24 +4560,30 @@
         <v>1384</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="2">
+        <v>79</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>73.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1">
-        <v>81</v>
-      </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
-        <v>110.58</v>
+        <v>121.76</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>128</v>
@@ -4271,16 +4595,16 @@
         <v>179</v>
       </c>
       <c r="H65" s="2">
-        <v>9288720</v>
+        <v>5113920</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>128</v>
@@ -4289,68 +4613,80 @@
         <v>1384</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="2">
+        <v>80</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>40.5866666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="1">
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42.13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5308380</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O66" s="2">
+        <v>81</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
         <v>82</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="2">
-        <v>121.76</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H66" s="2">
-        <v>5113920</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M66" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O66" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1">
-        <v>83</v>
-      </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2">
-        <v>42.13</v>
+        <v>39.97</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>91</v>
@@ -4359,22 +4695,22 @@
         <v>128</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H67" s="2">
-        <v>5308380</v>
+        <v>5036220</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>128</v>
@@ -4383,21 +4719,27 @@
         <v>1384</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O67" s="2">
+        <v>82</v>
+      </c>
+      <c r="P67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>39.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>84</v>
-      </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2">
-        <v>39.97</v>
+        <v>630.79</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>91</v>
@@ -4406,22 +4748,22 @@
         <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H68" s="2">
-        <v>5036220</v>
+        <v>116395263</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>128</v>
@@ -4430,21 +4772,27 @@
         <v>1384</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="2">
+        <v>83</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>630.79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1">
-        <v>85</v>
-      </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2">
-        <v>630.79</v>
+        <v>26.06</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>91</v>
@@ -4453,22 +4801,22 @@
         <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H69" s="2">
-        <v>116395263</v>
+        <v>6071980</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>128</v>
@@ -4477,21 +4825,27 @@
         <v>1384</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O69" s="2">
+        <v>84</v>
+      </c>
+      <c r="P69" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>26.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1">
-        <v>86</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2">
-        <v>26.06</v>
+        <v>48.38</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>91</v>
@@ -4503,19 +4857,19 @@
         <v>172</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H70" s="2">
-        <v>6071980</v>
+        <v>9234822</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>128</v>
@@ -4524,21 +4878,27 @@
         <v>1384</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O70" s="2">
+        <v>85</v>
+      </c>
+      <c r="P70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>48.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="1">
-        <v>87</v>
-      </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2">
-        <v>48.38</v>
+        <v>1337</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>91</v>
@@ -4550,19 +4910,19 @@
         <v>173</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H71" s="2">
-        <v>9234822</v>
+        <v>275633246</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>128</v>
@@ -4571,24 +4931,30 @@
         <v>1384</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O71" s="2">
+        <v>86</v>
+      </c>
+      <c r="P71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1">
-        <v>88</v>
-      </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2">
-        <v>1337</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>128</v>
@@ -4597,19 +4963,19 @@
         <v>174</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H72" s="2">
-        <v>275633246</v>
+        <v>453000</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>128</v>
@@ -4618,24 +4984,30 @@
         <v>1384</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O72" s="2">
+        <v>87</v>
+      </c>
+      <c r="P72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1">
-        <v>89</v>
-      </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>128</v>
@@ -4647,16 +5019,16 @@
         <v>179</v>
       </c>
       <c r="H73" s="2">
-        <v>453000</v>
+        <v>604000</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>128</v>
@@ -4665,24 +5037,30 @@
         <v>1384</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O73" s="2">
+        <v>88</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="1">
-        <v>90</v>
-      </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>128</v>
@@ -4694,16 +5072,16 @@
         <v>179</v>
       </c>
       <c r="H74" s="2">
-        <v>604000</v>
+        <v>7154800</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>128</v>
@@ -4712,24 +5090,30 @@
         <v>1384</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O74" s="2">
+        <v>89</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.577</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>46.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="1">
-        <v>91</v>
-      </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>128</v>
@@ -4738,19 +5122,19 @@
         <v>177</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H75" s="2">
-        <v>7154800</v>
+        <v>4979375</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>128</v>
@@ -4759,21 +5143,27 @@
         <v>1384</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O75" s="2">
+        <v>90</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>32.125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="1">
-        <v>92</v>
-      </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>126</v>
@@ -4782,22 +5172,22 @@
         <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H76" s="2">
-        <v>4979375</v>
+        <v>678125</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>128</v>
@@ -4806,57 +5196,16 @@
         <v>1384</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O76" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1">
-        <v>93</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="2">
-        <v>35</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H77" s="2">
-        <v>678125</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M77" s="2">
-        <v>1384</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O77" s="2">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>4.375</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +5215,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4874,36 +5223,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1">
+        <v>160.44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2">
-        <v>160.44</v>
+        <v>123.24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
@@ -4912,21 +5261,21 @@
         <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2">
         <v>123.24</v>
@@ -4938,21 +5287,21 @@
         <v>127</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2">
         <v>123.24</v>
@@ -4964,24 +5313,24 @@
         <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2">
-        <v>123.24</v>
+        <v>151.59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>91</v>
@@ -4990,24 +5339,24 @@
         <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2">
-        <v>151.59</v>
+        <v>73.64</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>91</v>
@@ -5016,24 +5365,24 @@
         <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2">
-        <v>73.64</v>
+        <v>109.02</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
@@ -5042,21 +5391,21 @@
         <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="H7" s="2">
+        <v>227000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2">
         <v>109.02</v>
@@ -5068,10 +5417,10 @@
         <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H8" s="2">
         <v>227000</v>
@@ -5079,39 +5428,39 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2">
-        <v>109.02</v>
+        <v>370.6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="2">
-        <v>227000</v>
+      <c r="H9" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2">
-        <v>370.6</v>
+        <v>94.35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>91</v>
@@ -5120,21 +5469,21 @@
         <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2">
         <v>94.35</v>
@@ -5146,50 +5495,50 @@
         <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2">
-        <v>94.35</v>
+        <v>94.26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>180</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C13" s="2">
-        <v>94.26</v>
+        <v>108.7</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>123</v>
@@ -5198,102 +5547,100 @@
         <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2">
-        <v>108.7</v>
+        <v>104.32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C15" s="2">
-        <v>104.32</v>
+        <v>650.2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2">
-        <v>650.2</v>
+        <v>132.6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C17" s="2">
-        <v>132.6</v>
+        <v>87.13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>91</v>
@@ -5302,22 +5649,24 @@
         <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>104900</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2">
-        <v>87.13</v>
+        <v>85.4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>91</v>
@@ -5326,21 +5675,21 @@
         <v>128</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H18" s="2">
-        <v>104900</v>
+        <v>132800</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2">
         <v>85.4</v>
@@ -5352,24 +5701,24 @@
         <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="2">
-        <v>132800</v>
+        <v>103900</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2">
-        <v>85.4</v>
+        <v>67.1</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>91</v>
@@ -5378,21 +5727,21 @@
         <v>128</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H20" s="2">
-        <v>103900</v>
+        <v>85700</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2">
         <v>67.1</v>
@@ -5404,13 +5753,13 @@
         <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H21" s="2">
-        <v>85700</v>
+        <v>94800</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5418,7 +5767,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2">
         <v>67.1</v>
@@ -5430,21 +5779,21 @@
         <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="2">
-        <v>94800</v>
+        <v>106800</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2">
         <v>67.1</v>
@@ -5456,24 +5805,24 @@
         <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H23" s="2">
-        <v>106800</v>
+        <v>79100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2">
-        <v>67.1</v>
+        <v>67.71</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>91</v>
@@ -5482,21 +5831,21 @@
         <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="2">
-        <v>79100</v>
+        <v>135367</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2">
         <v>67.71</v>
@@ -5508,21 +5857,21 @@
         <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H25" s="2">
-        <v>135367</v>
+        <v>107800</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2">
         <v>67.71</v>
@@ -5534,24 +5883,24 @@
         <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H26" s="2">
-        <v>107800</v>
+        <v>89200</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2">
-        <v>67.71</v>
+        <v>84.44</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>91</v>
@@ -5560,21 +5909,21 @@
         <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H27" s="2">
-        <v>89200</v>
+        <v>126900</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2">
         <v>84.44</v>
@@ -5586,21 +5935,21 @@
         <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="2">
-        <v>126900</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2">
         <v>84.44</v>
@@ -5612,24 +5961,24 @@
         <v>128</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H29" s="2">
-        <v>113800</v>
+        <v>107100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2">
-        <v>84.44</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>91</v>
@@ -5638,24 +5987,24 @@
         <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H30" s="2">
-        <v>107100</v>
+        <v>158800</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2">
-        <v>104</v>
+        <v>82.72</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>91</v>
@@ -5664,24 +6013,24 @@
         <v>128</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H31" s="2">
-        <v>158800</v>
+        <v>167600</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2">
-        <v>82.72</v>
+        <v>100.88</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>91</v>
@@ -5690,24 +6039,24 @@
         <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>179</v>
       </c>
       <c r="H32" s="2">
-        <v>167600</v>
+        <v>168700</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C33" s="2">
-        <v>100.88</v>
+        <v>67.1</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>91</v>
@@ -5716,24 +6065,24 @@
         <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H33" s="2">
-        <v>168700</v>
+        <v>86800</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2">
-        <v>67.1</v>
+        <v>112.8</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>91</v>
@@ -5742,38 +6091,12 @@
         <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H34" s="2">
-        <v>86800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1">
-        <v>134</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="2">
-        <v>112.8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="2">
         <v>52600</v>
       </c>
     </row>
@@ -5784,7 +6107,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5792,359 +6115,336 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>128</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>58260</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>58260</v>
+        <v>1278251</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1278251</v>
+        <v>2247864</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2247864</v>
+        <v>552213</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>552213</v>
+        <v>2359642</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2359642</v>
+        <v>4716527</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>4716527</v>
+        <v>97297</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>97297</v>
+        <v>20352</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>20352</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>764</v>
+        <v>548910</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>548910</v>
+        <v>310074</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>310074</v>
+        <v>3024949</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>3024949</v>
+        <v>15374</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>15374</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10315</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>1885.2</v>
+      </c>
       <c r="G16" s="2">
-        <v>4685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>172</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1885.2</v>
-      </c>
-      <c r="G17" s="2">
         <v>56763</v>
       </c>
     </row>
@@ -6155,7 +6455,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6169,16 +6469,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -6204,34 +6504,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="2">
-        <v>7179892</v>
+        <v>4950000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G2" s="2">
-        <v>71798920</v>
+        <v>49500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>128</v>
@@ -6240,42 +6540,42 @@
         <v>1384</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N2" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2">
-        <v>4950000</v>
+        <v>3232655</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G3" s="2">
-        <v>49500000</v>
+        <v>32326550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>128</v>
@@ -6284,42 +6584,42 @@
         <v>1384</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N3" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D4" s="2">
-        <v>3232655</v>
+        <v>7000000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G4" s="2">
-        <v>32326550</v>
+        <v>70000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>128</v>
@@ -6328,42 +6628,42 @@
         <v>1384</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N4" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="2">
-        <v>7000000</v>
+        <v>29920000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G5" s="2">
-        <v>70000000</v>
+        <v>299200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>128</v>
@@ -6372,42 +6672,42 @@
         <v>1384</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N5" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="2">
-        <v>29920000</v>
+        <v>1036728</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G6" s="2">
-        <v>299200000</v>
+        <v>10367280</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>128</v>
@@ -6416,42 +6716,42 @@
         <v>1384</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N6" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D7" s="2">
-        <v>1036728</v>
+        <v>491728</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="G7" s="2">
-        <v>10367280</v>
+        <v>4917280</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>128</v>
@@ -6460,54 +6760,10 @@
         <v>1384</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N7" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>185</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="2">
-        <v>491728</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4917280</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1384</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6517,7 +6773,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6525,68 +6781,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
+      </c>
+      <c r="E1" s="1">
+        <v>95000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2">
-        <v>95000000</v>
+        <v>32800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>222</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="2">
-        <v>32800000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="270">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市三芝區土地公埔段八連溪頭小段01600027地號</t>
+  </si>
+  <si>
     <t>臺北市士林區永新段一小段03460000地號</t>
   </si>
   <si>
@@ -293,6 +296,9 @@
     <t>臺北市文山區木柵段一小段04900001地號</t>
   </si>
   <si>
+    <t>10000分之111</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -407,6 +413,9 @@
     <t>薛凌</t>
   </si>
   <si>
+    <t>88年08月23日</t>
+  </si>
+  <si>
     <t>60年08月17日</t>
   </si>
   <si>
@@ -554,12 +563,12 @@
     <t>99年08月25日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -599,138 +608,138 @@
     <t>臺北市士林區永新段二小段</t>
   </si>
   <si>
+    <t>臺北市士林區永新段二小段20152000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段二小段20153000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區永新段二小段20154000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段31119000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區海光段三小段31118000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段30368000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段三小段30369000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段10188000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段10218000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區福順段一小段10219000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段11357000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段11364000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區振興段一小段11365000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區寶清段一小段02026000建號</t>
+  </si>
+  <si>
+    <t>臺北市士林區仰德大道</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30794000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30783000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30784000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30787000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30788000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30796000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30797000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30798000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30799000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30800000建號</t>
+  </si>
+  <si>
+    <t>臺北市it投區崇仰段三小段30801000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30802000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30803000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30743000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30830000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30737000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區崇仰段三小段30786000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區木柵段一小段00132000建號</t>
+  </si>
+  <si>
+    <t>10000分之796</t>
+  </si>
+  <si>
     <t>69年10月</t>
   </si>
   <si>
+    <t>69年10月28日</t>
+  </si>
+  <si>
+    <t>77年11月29日</t>
+  </si>
+  <si>
+    <t>71年11月26日</t>
+  </si>
+  <si>
+    <t>96年02月02日</t>
+  </si>
+  <si>
+    <t>%年01月25日</t>
+  </si>
+  <si>
+    <t>96年06月08日</t>
+  </si>
+  <si>
+    <t>96年03月26日</t>
+  </si>
+  <si>
+    <t>99年10月18曰</t>
+  </si>
+  <si>
     <t>買賈</t>
   </si>
   <si>
-    <t>臺北市士林區永新段二小段20152000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段二小段20153000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區永新段二小段20154000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段31119000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區海光段三小段31118000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段30368000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段三小段30369000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段10188000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段10218000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區福順段一小段10219000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段11357000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段11364000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區振興段一小段11365000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區寶清段一小段02026000建號</t>
-  </si>
-  <si>
-    <t>臺北市士林區仰德大道</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30794000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30783000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30784000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30787000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30788000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30796000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30797000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30798000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30799000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30800000建號</t>
-  </si>
-  <si>
-    <t>臺北市it投區崇仰段三小段30801000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30802000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30803000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30743000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30830000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30737000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區崇仰段三小段30786000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區木柵段一小段00132000建號</t>
-  </si>
-  <si>
-    <t>10000分之796</t>
-  </si>
-  <si>
-    <t>69年10月28日</t>
-  </si>
-  <si>
-    <t>77年11月29日</t>
-  </si>
-  <si>
-    <t>71年11月26日</t>
-  </si>
-  <si>
-    <t>96年02月02日</t>
-  </si>
-  <si>
-    <t>%年01月25日</t>
-  </si>
-  <si>
-    <t>96年06月08日</t>
-  </si>
-  <si>
-    <t>96年03月26日</t>
-  </si>
-  <si>
-    <t>99年10月18曰</t>
-  </si>
-  <si>
     <t>(超渦五年)</t>
   </si>
   <si>
@@ -782,10 +791,10 @@
     <t>currency</t>
   </si>
   <si>
+    <t>陽信商銀</t>
+  </si>
+  <si>
     <t>全陽建設</t>
-  </si>
-  <si>
-    <t>陽信商銀</t>
   </si>
   <si>
     <t>富利陽投資</t>
@@ -1177,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1235,3976 +1244,4029 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>40</v>
+        <v>7149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M2" s="2">
         <v>1384</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.0111</v>
       </c>
       <c r="Q2" s="2">
-        <v>40</v>
+        <v>79.3539</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M3" s="2">
         <v>1384</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>146.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>366</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="2">
         <v>1384</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.388888888888889</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M5" s="2">
         <v>1384</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0555555555555556</v>
       </c>
       <c r="Q5" s="2">
-        <v>5.61111111111111</v>
+        <v>0.388888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M6" s="2">
         <v>1384</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0555555555555556</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.94444444444444</v>
+        <v>5.61111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M7" s="2">
         <v>1384</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0194083333333333</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.271716666666667</v>
+        <v>1.94444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" s="2">
         <v>1384</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0555555555555556</v>
+        <v>0.0194083333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>17.3333333333333</v>
+        <v>0.271716666666667</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>312</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" s="2">
         <v>1384</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.1002</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Q9" s="2">
-        <v>50.1</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>153</v>
+        <v>500</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="2">
         <v>1384</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0932</v>
+        <v>0.1002</v>
       </c>
       <c r="Q10" s="2">
-        <v>14.2596</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" s="2">
         <v>1384</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0555555555555556</v>
+        <v>0.0932</v>
       </c>
       <c r="Q11" s="2">
-        <v>6.11111111111111</v>
+        <v>14.2596</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M12" s="2">
         <v>1384</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.111111111111111</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.111111111111111</v>
+        <v>6.11111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M13" s="2">
         <v>1384</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.5</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>496.48</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="2">
-        <v>26677091</v>
+        <v>183</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2">
         <v>1384</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.6466</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q14" s="2">
-        <v>321.023968</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>265.52</v>
+        <v>496.48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H15" s="2">
-        <v>13069417</v>
+        <v>26677091</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2">
         <v>1384</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.5909</v>
+        <v>0.6466</v>
       </c>
       <c r="Q15" s="2">
-        <v>156.895768</v>
+        <v>321.023968</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>419</v>
+        <v>265.52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H16" s="2">
-        <v>3831855</v>
+        <v>13069417</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M16" s="2">
         <v>1384</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>0.1118</v>
+        <v>0.5909</v>
       </c>
       <c r="Q16" s="2">
-        <v>46.8442</v>
+        <v>156.895768</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>3901</v>
+        <v>419</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H17" s="2">
-        <v>173594695</v>
+        <v>3831855</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2">
         <v>1384</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>0.5355</v>
+        <v>0.1118</v>
       </c>
       <c r="Q17" s="2">
-        <v>2088.9855</v>
+        <v>46.8442</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3901</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H18" s="2">
-        <v>145200</v>
+        <v>173594695</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2">
         <v>1384</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0.5355</v>
       </c>
       <c r="Q18" s="2">
-        <v>2</v>
+        <v>2088.9855</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H19" s="2">
-        <v>10263896</v>
+        <v>145200</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="2">
         <v>1384</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
-        <v>0.631877176321621</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>123.216049382716</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H20" s="2">
-        <v>4750372</v>
+        <v>10263896</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="2">
         <v>1384</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
-        <v>0.922008547008547</v>
+        <v>0.631877176321621</v>
       </c>
       <c r="Q20" s="2">
-        <v>57.1645299145299</v>
+        <v>123.216049382716</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H21" s="2">
-        <v>8489600</v>
+        <v>4750372</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M21" s="2">
         <v>1384</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0.922008547008547</v>
       </c>
       <c r="Q21" s="2">
-        <v>112</v>
+        <v>57.1645299145299</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H22" s="2">
-        <v>16751800</v>
+        <v>8489600</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="2">
         <v>1384</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>221</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H23" s="2">
-        <v>5635092</v>
+        <v>16751800</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="2">
         <v>1384</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>34</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H24" s="2">
-        <v>5794994</v>
+        <v>5635092</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M24" s="2">
         <v>1384</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
         <v>0.25</v>
       </c>
       <c r="Q24" s="2">
-        <v>35.25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>1321</v>
+        <v>141</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5794994</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="2">
         <v>1384</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2">
-        <v>0.10859</v>
+        <v>0.25</v>
       </c>
       <c r="Q25" s="2">
-        <v>143.44739</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>1321</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M26" s="2">
         <v>1384</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="2">
-        <v>1</v>
+        <v>0.10859</v>
       </c>
       <c r="Q26" s="2">
-        <v>5</v>
+        <v>143.44739</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>931</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M27" s="2">
         <v>1384</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2">
-        <v>0.12849</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>119.62419</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>931</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28" s="2">
         <v>1384</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0.12849</v>
       </c>
       <c r="Q28" s="2">
-        <v>15</v>
+        <v>119.62419</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M29" s="2">
         <v>1384</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2">
-        <v>0.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>7.16666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M30" s="2">
         <v>1384</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2">
-        <v>0.075</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q30" s="2">
-        <v>0.9</v>
+        <v>7.16666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M31" s="2">
         <v>1384</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2">
-        <v>0.0417</v>
+        <v>0.075</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.0834</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M32" s="2">
         <v>1384</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2">
-        <v>1</v>
+        <v>0.0417</v>
       </c>
       <c r="Q32" s="2">
-        <v>1</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M33" s="2">
         <v>1384</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
       </c>
       <c r="Q33" s="2">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>634.94</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M34" s="2">
         <v>1384</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O34" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P34" s="2">
         <v>1</v>
       </c>
       <c r="Q34" s="2">
-        <v>634.94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2">
-        <v>395.95</v>
+        <v>634.94</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M35" s="2">
         <v>1384</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O35" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P35" s="2">
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <v>395.95</v>
+        <v>634.94</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="2">
-        <v>38</v>
+        <v>395.95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M36" s="2">
         <v>1384</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O36" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="2">
-        <v>19</v>
+        <v>395.95</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M37" s="2">
         <v>1384</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O37" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P37" s="2">
         <v>0.5</v>
       </c>
       <c r="Q37" s="2">
-        <v>65.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M38" s="2">
         <v>1384</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O38" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q38" s="2">
-        <v>121</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M39" s="2">
         <v>1384</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O39" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <v>3.75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M40" s="2">
         <v>1384</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O40" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" s="2">
         <v>0.75</v>
       </c>
       <c r="Q40" s="2">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M41" s="2">
         <v>1384</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O41" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P41" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="2">
-        <v>2095</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M42" s="2">
         <v>1384</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O42" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P42" s="2">
-        <v>0.0341</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q42" s="2">
-        <v>71.4395</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>5991</v>
+        <v>2095</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M43" s="2">
         <v>1384</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O43" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P43" s="2">
-        <v>0.25</v>
+        <v>0.0341</v>
       </c>
       <c r="Q43" s="2">
-        <v>1497.75</v>
+        <v>71.4395</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>5991</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M44" s="2">
         <v>1384</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O44" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P44" s="2">
         <v>0.25</v>
       </c>
       <c r="Q44" s="2">
-        <v>0.25</v>
+        <v>1497.75</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M45" s="2">
         <v>1384</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O45" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P45" s="2">
         <v>0.25</v>
       </c>
       <c r="Q45" s="2">
-        <v>51.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="2">
-        <v>3299</v>
+        <v>205</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M46" s="2">
         <v>1384</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O46" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P46" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q46" s="2">
-        <v>3299</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="2">
-        <v>911</v>
+        <v>3299</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M47" s="2">
         <v>1384</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O47" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P47" s="2">
-        <v>0.0805333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>73.3658666666667</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="2">
-        <v>235</v>
+        <v>911</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M48" s="2">
         <v>1384</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O48" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P48" s="2">
-        <v>0.136533333333333</v>
+        <v>0.0805333333333333</v>
       </c>
       <c r="Q48" s="2">
-        <v>32.0853333333333</v>
+        <v>73.3658666666667</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="2">
-        <v>1289</v>
+        <v>235</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M49" s="2">
         <v>1384</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O49" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P49" s="2">
-        <v>0.00416666666666667</v>
+        <v>0.136533333333333</v>
       </c>
       <c r="Q49" s="2">
-        <v>5.37083333333333</v>
+        <v>32.0853333333333</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>1097</v>
+        <v>1289</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M50" s="2">
         <v>1384</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O50" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P50" s="2">
-        <v>0.0411</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="Q50" s="2">
-        <v>45.0867</v>
+        <v>5.37083333333333</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="2">
-        <v>4</v>
+        <v>1097</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M51" s="2">
         <v>1384</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O51" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P51" s="2">
-        <v>0.8954</v>
+        <v>0.0411</v>
       </c>
       <c r="Q51" s="2">
-        <v>3.5816</v>
+        <v>45.0867</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="2">
-        <v>905</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M52" s="2">
         <v>1384</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O52" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P52" s="2">
-        <v>0.0522</v>
+        <v>0.8954</v>
       </c>
       <c r="Q52" s="2">
-        <v>47.241</v>
+        <v>3.5816</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="2">
-        <v>949</v>
+        <v>905</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M53" s="2">
         <v>1384</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O53" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P53" s="2">
-        <v>0.0002</v>
+        <v>0.0522</v>
       </c>
       <c r="Q53" s="2">
-        <v>0.1898</v>
+        <v>47.241</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="2">
-        <v>17</v>
+        <v>949</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M54" s="2">
         <v>1384</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O54" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P54" s="2">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="Q54" s="2">
-        <v>17</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="2">
-        <v>1.52</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H55" s="2">
-        <v>165680</v>
+        <v>183</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M55" s="2">
         <v>1384</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O55" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P55" s="2">
         <v>1</v>
       </c>
       <c r="Q55" s="2">
-        <v>1.52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="2">
-        <v>73.9</v>
+        <v>1.52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H56" s="2">
-        <v>10641600</v>
+        <v>165680</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M56" s="2">
         <v>1384</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O56" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P56" s="2">
         <v>1</v>
       </c>
       <c r="Q56" s="2">
-        <v>73.9</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="2">
-        <v>80.37</v>
+        <v>73.9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H57" s="2">
-        <v>11573280</v>
+        <v>10641600</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M57" s="2">
         <v>1384</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O57" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P57" s="2">
         <v>1</v>
       </c>
       <c r="Q57" s="2">
-        <v>80.37</v>
+        <v>73.9</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="2">
-        <v>74.24</v>
+        <v>80.37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H58" s="2">
-        <v>9354240</v>
+        <v>11573280</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M58" s="2">
         <v>1384</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O58" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P58" s="2">
         <v>1</v>
       </c>
       <c r="Q58" s="2">
-        <v>74.24</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>9.74</v>
+        <v>74.24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H59" s="2">
-        <v>1227240</v>
+        <v>9354240</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M59" s="2">
         <v>1384</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O59" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P59" s="2">
         <v>1</v>
       </c>
       <c r="Q59" s="2">
-        <v>9.74</v>
+        <v>74.24</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="2">
-        <v>22.2</v>
+        <v>9.74</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H60" s="2">
-        <v>2797200</v>
+        <v>1227240</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M60" s="2">
         <v>1384</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O60" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P60" s="2">
         <v>1</v>
       </c>
       <c r="Q60" s="2">
-        <v>22.2</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="2">
-        <v>329.86</v>
+        <v>22.2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H61" s="2">
-        <v>48159560</v>
+        <v>2797200</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M61" s="2">
         <v>1384</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O61" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P61" s="2">
         <v>1</v>
       </c>
       <c r="Q61" s="2">
-        <v>329.86</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C62" s="2">
-        <v>87.24</v>
+        <v>329.86</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H62" s="2">
-        <v>7328160</v>
+        <v>48159560</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M62" s="2">
         <v>1384</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O62" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P62" s="2">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="2">
-        <v>58.16</v>
+        <v>329.86</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C63" s="2">
-        <v>88.1</v>
+        <v>87.24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H63" s="2">
-        <v>12862600</v>
+        <v>7328160</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M63" s="2">
         <v>1384</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O63" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P63" s="2">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q63" s="2">
-        <v>88.1</v>
+        <v>58.16</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C64" s="2">
-        <v>110.58</v>
+        <v>88.1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H64" s="2">
-        <v>9288720</v>
+        <v>12862600</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M64" s="2">
         <v>1384</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O64" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="2">
-        <v>73.72</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="2">
-        <v>121.76</v>
+        <v>110.58</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H65" s="2">
-        <v>5113920</v>
+        <v>9288720</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M65" s="2">
         <v>1384</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O65" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P65" s="2">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q65" s="2">
-        <v>40.5866666666667</v>
+        <v>73.72</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C66" s="2">
-        <v>42.13</v>
+        <v>121.76</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H66" s="2">
-        <v>5308380</v>
+        <v>5113920</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M66" s="2">
         <v>1384</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P66" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q66" s="2">
-        <v>42.13</v>
+        <v>40.5866666666667</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C67" s="2">
-        <v>39.97</v>
+        <v>42.13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H67" s="2">
-        <v>5036220</v>
+        <v>5308380</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M67" s="2">
         <v>1384</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O67" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P67" s="2">
         <v>1</v>
       </c>
       <c r="Q67" s="2">
-        <v>39.97</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="2">
-        <v>630.79</v>
+        <v>39.97</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H68" s="2">
-        <v>116395263</v>
+        <v>5036220</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M68" s="2">
         <v>1384</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O68" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P68" s="2">
         <v>1</v>
       </c>
       <c r="Q68" s="2">
-        <v>630.79</v>
+        <v>39.97</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C69" s="2">
-        <v>26.06</v>
+        <v>630.79</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H69" s="2">
-        <v>6071980</v>
+        <v>116395263</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M69" s="2">
         <v>1384</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O69" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P69" s="2">
         <v>1</v>
       </c>
       <c r="Q69" s="2">
-        <v>26.06</v>
+        <v>630.79</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="2">
-        <v>48.38</v>
+        <v>26.06</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H70" s="2">
-        <v>9234822</v>
+        <v>6071980</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M70" s="2">
         <v>1384</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O70" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P70" s="2">
         <v>1</v>
       </c>
       <c r="Q70" s="2">
-        <v>48.38</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C71" s="2">
-        <v>1337</v>
+        <v>48.38</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H71" s="2">
-        <v>275633246</v>
+        <v>9234822</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M71" s="2">
         <v>1384</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O71" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P71" s="2">
         <v>1</v>
       </c>
       <c r="Q71" s="2">
-        <v>1337</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>1337</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H72" s="2">
-        <v>453000</v>
+        <v>275633246</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M72" s="2">
         <v>1384</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O72" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P72" s="2">
         <v>1</v>
       </c>
       <c r="Q72" s="2">
-        <v>3</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C73" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H73" s="2">
-        <v>604000</v>
+        <v>453000</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M73" s="2">
         <v>1384</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O73" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P73" s="2">
         <v>1</v>
       </c>
       <c r="Q73" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C74" s="2">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H74" s="2">
-        <v>7154800</v>
+        <v>604000</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M74" s="2">
         <v>1384</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O74" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P74" s="2">
-        <v>0.577</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="2">
-        <v>46.16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C75" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>181</v>
       </c>
       <c r="H75" s="2">
-        <v>4979375</v>
+        <v>7154800</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M75" s="2">
         <v>1384</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O75" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P75" s="2">
-        <v>0.125</v>
+        <v>0.577</v>
       </c>
       <c r="Q75" s="2">
-        <v>32.125</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C76" s="2">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H76" s="2">
-        <v>678125</v>
+        <v>4979375</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M76" s="2">
         <v>1384</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O76" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P76" s="2">
         <v>0.125</v>
       </c>
       <c r="Q76" s="2">
+        <v>32.125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>91</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="2">
+        <v>35</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H77" s="2">
+        <v>678125</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O77" s="2">
+        <v>91</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q77" s="2">
         <v>4.375</v>
       </c>
     </row>
@@ -5215,64 +5277,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="1">
-        <v>160.44</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C2" s="2">
-        <v>123.24</v>
+        <v>160.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="2">
+        <v>96</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>160.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>196</v>
@@ -5281,24 +5397,51 @@
         <v>123.24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="2">
+        <v>99</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>123.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>197</v>
@@ -5307,102 +5450,210 @@
         <v>123.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="2">
+        <v>100</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>123.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C5" s="2">
-        <v>151.59</v>
+        <v>123.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="2">
+        <v>101</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>123.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C6" s="2">
-        <v>73.64</v>
+        <v>151.59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="2">
+        <v>102</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>151.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="2">
-        <v>109.02</v>
+        <v>73.64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="2">
-        <v>227000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="2">
+        <v>103</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>201</v>
@@ -5411,76 +5662,157 @@
         <v>109.02</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H8" s="2">
         <v>227000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="2">
+        <v>104</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>109.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C9" s="2">
-        <v>370.6</v>
+        <v>109.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="H9" s="2">
+        <v>227000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="2">
+        <v>105</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>109.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C10" s="2">
-        <v>94.35</v>
+        <v>370.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="2">
+        <v>106</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>370.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>204</v>
@@ -5489,204 +5821,420 @@
         <v>94.35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="2">
+        <v>107</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>94.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C12" s="2">
-        <v>94.26</v>
+        <v>94.35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="2">
+        <v>108</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>94.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="2">
-        <v>108.7</v>
+        <v>94.26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="2">
+        <v>109</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>31.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C14" s="2">
-        <v>104.32</v>
+        <v>108.7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="2">
+        <v>110</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>36.2333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C15" s="2">
-        <v>650.2</v>
+        <v>104.32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="2">
+        <v>111</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>104.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C16" s="2">
-        <v>132.6</v>
+        <v>650.2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="2">
+        <v>112</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0796</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>51.75592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C17" s="2">
-        <v>87.13</v>
+        <v>132.6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="2">
-        <v>104900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="2">
+        <v>113</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C18" s="2">
-        <v>85.4</v>
+        <v>87.13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H18" s="2">
-        <v>132800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>104900</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="2">
+        <v>114</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>87.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>212</v>
@@ -5695,50 +6243,104 @@
         <v>85.4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H19" s="2">
-        <v>103900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>132800</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="2">
+        <v>115</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C20" s="2">
-        <v>67.1</v>
+        <v>85.4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H20" s="2">
-        <v>85700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>103900</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="2">
+        <v>116</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>214</v>
@@ -5747,24 +6349,51 @@
         <v>67.1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H21" s="2">
-        <v>94800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>85700</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="2">
+        <v>117</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>215</v>
@@ -5773,24 +6402,51 @@
         <v>67.1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H22" s="2">
-        <v>106800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>94800</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" s="2">
+        <v>118</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>216</v>
@@ -5799,50 +6455,104 @@
         <v>67.1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H23" s="2">
-        <v>79100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>106800</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="2">
+        <v>120</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C24" s="2">
-        <v>67.71</v>
+        <v>67.1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H24" s="2">
-        <v>135367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>79100</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="2">
+        <v>121</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>218</v>
@@ -5851,24 +6561,51 @@
         <v>67.71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="2">
-        <v>107800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>135367</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" s="2">
+        <v>122</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>67.71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>219</v>
@@ -5877,50 +6614,104 @@
         <v>67.71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="2">
-        <v>89200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>107800</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" s="2">
+        <v>123</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>67.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C27" s="2">
-        <v>84.44</v>
+        <v>67.71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H27" s="2">
-        <v>126900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>89200</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="2">
+        <v>124</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>67.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>221</v>
@@ -5929,24 +6720,51 @@
         <v>84.44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="2">
-        <v>113800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>126900</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="2">
+        <v>125</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>222</v>
@@ -5955,149 +6773,364 @@
         <v>84.44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H29" s="2">
-        <v>107100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>113800</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="2">
+        <v>126</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C30" s="2">
-        <v>104</v>
+        <v>84.44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="2">
+        <v>107100</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" s="2">
+        <v>127</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
         <v>128</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="2">
-        <v>158800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C31" s="2">
-        <v>82.72</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="2">
+        <v>158800</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" s="2">
         <v>128</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="2">
-        <v>167600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C32" s="2">
-        <v>100.88</v>
+        <v>82.72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H32" s="2">
-        <v>168700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>167600</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" s="2">
+        <v>129</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>82.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C33" s="2">
-        <v>67.1</v>
+        <v>100.88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H33" s="2">
-        <v>86800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>168700</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="2">
+        <v>130</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>100.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C34" s="2">
+        <v>67.1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="2">
+        <v>86800</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="2">
+        <v>131</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>67.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="2">
         <v>112.8</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="2">
         <v>52600</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1384</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O35" s="2">
+        <v>132</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>112.8</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +7140,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6115,16 +7148,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -6133,318 +7166,339 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1278251</v>
+        <v>58260</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>2247864</v>
+        <v>1278251</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>552213</v>
+        <v>2247864</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2359642</v>
+        <v>552213</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>4716527</v>
+        <v>2359642</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>97297</v>
+        <v>4716527</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>20352</v>
+        <v>97297</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>764</v>
+        <v>20352</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>548910</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>310074</v>
+        <v>548910</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>3024949</v>
+        <v>310074</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>15374</v>
+        <v>3024949</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>10315</v>
+        <v>15374</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>4685</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>169</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>170</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="2">
         <v>1885.2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>56763</v>
       </c>
     </row>
@@ -6455,7 +7509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6469,13 +7523,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6504,265 +7558,309 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
-        <v>4950000</v>
+        <v>7179892</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G2" s="2">
-        <v>49500000</v>
+        <v>71798920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L2" s="2">
         <v>1384</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N2" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2">
-        <v>3232655</v>
+        <v>4950000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G3" s="2">
-        <v>32326550</v>
+        <v>49500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L3" s="2">
         <v>1384</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N3" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2">
-        <v>7000000</v>
+        <v>3232655</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G4" s="2">
-        <v>70000000</v>
+        <v>32326550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" s="2">
         <v>1384</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N4" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2">
-        <v>29920000</v>
+        <v>7000000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G5" s="2">
-        <v>299200000</v>
+        <v>70000000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="2">
         <v>1384</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N5" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2">
-        <v>1036728</v>
+        <v>29920000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G6" s="2">
-        <v>10367280</v>
+        <v>299200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L6" s="2">
         <v>1384</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N6" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2">
-        <v>491728</v>
+        <v>1036728</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G7" s="2">
+        <v>10367280</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1384</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N7" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>183</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="2">
+        <v>491728</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="2">
         <v>4917280</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1384</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="H8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1384</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="2">
         <v>183</v>
       </c>
     </row>
@@ -6773,7 +7871,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6781,45 +7879,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1">
         <v>95000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>219</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="2">
+        <v>95000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>220</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="2">
         <v>32800000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>264</v>
+      <c r="F3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="271">
   <si>
     <t>name</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t>(原持分159210000出售79610000)</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>合作金庫商業銀行古亭支庫</t>
@@ -5359,7 +5362,7 @@
         <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>192</v>
@@ -5412,7 +5415,7 @@
         <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>192</v>
@@ -5465,7 +5468,7 @@
         <v>188</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>192</v>
@@ -5518,7 +5521,7 @@
         <v>188</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>192</v>
@@ -5571,7 +5574,7 @@
         <v>188</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>192</v>
@@ -5624,7 +5627,7 @@
         <v>188</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>192</v>
@@ -5677,7 +5680,7 @@
         <v>227000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>192</v>
@@ -5730,7 +5733,7 @@
         <v>227000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>192</v>
@@ -5783,7 +5786,7 @@
         <v>188</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>192</v>
@@ -5836,7 +5839,7 @@
         <v>188</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>192</v>
@@ -5889,7 +5892,7 @@
         <v>240</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>192</v>
@@ -5942,7 +5945,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>192</v>
@@ -5995,7 +5998,7 @@
         <v>188</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>192</v>
@@ -6048,7 +6051,7 @@
         <v>188</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>192</v>
@@ -6101,7 +6104,7 @@
         <v>241</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>192</v>
@@ -6152,7 +6155,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>192</v>
@@ -6205,7 +6208,7 @@
         <v>104900</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>192</v>
@@ -6258,7 +6261,7 @@
         <v>132800</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>192</v>
@@ -6311,7 +6314,7 @@
         <v>103900</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>192</v>
@@ -6364,7 +6367,7 @@
         <v>85700</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>192</v>
@@ -6417,7 +6420,7 @@
         <v>94800</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>192</v>
@@ -6470,7 +6473,7 @@
         <v>106800</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>192</v>
@@ -6523,7 +6526,7 @@
         <v>79100</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>192</v>
@@ -6576,7 +6579,7 @@
         <v>135367</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>192</v>
@@ -6629,7 +6632,7 @@
         <v>107800</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>192</v>
@@ -6682,7 +6685,7 @@
         <v>89200</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>192</v>
@@ -6735,7 +6738,7 @@
         <v>126900</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>192</v>
@@ -6788,7 +6791,7 @@
         <v>113800</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>192</v>
@@ -6841,7 +6844,7 @@
         <v>107100</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>192</v>
@@ -6894,7 +6897,7 @@
         <v>158800</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>192</v>
@@ -6947,7 +6950,7 @@
         <v>167600</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>192</v>
@@ -7000,7 +7003,7 @@
         <v>168700</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>192</v>
@@ -7053,7 +7056,7 @@
         <v>86800</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>192</v>
@@ -7106,7 +7109,7 @@
         <v>52600</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>192</v>
@@ -7148,13 +7151,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>130</v>
@@ -7169,13 +7172,13 @@
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>130</v>
@@ -7190,13 +7193,13 @@
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>130</v>
@@ -7211,13 +7214,13 @@
         <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>129</v>
@@ -7232,13 +7235,13 @@
         <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>130</v>
@@ -7253,13 +7256,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>130</v>
@@ -7274,13 +7277,13 @@
         <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>130</v>
@@ -7295,13 +7298,13 @@
         <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>129</v>
@@ -7316,13 +7319,13 @@
         <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>129</v>
@@ -7337,13 +7340,13 @@
         <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>129</v>
@@ -7358,13 +7361,13 @@
         <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>129</v>
@@ -7379,13 +7382,13 @@
         <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>130</v>
@@ -7400,13 +7403,13 @@
         <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>130</v>
@@ -7421,13 +7424,13 @@
         <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>130</v>
@@ -7442,13 +7445,13 @@
         <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>130</v>
@@ -7463,13 +7466,13 @@
         <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>130</v>
@@ -7484,13 +7487,13 @@
         <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>130</v>
@@ -7523,13 +7526,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -7561,7 +7564,7 @@
         <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -7573,13 +7576,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G2" s="2">
         <v>71798920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>192</v>
@@ -7605,7 +7608,7 @@
         <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -7617,13 +7620,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G3" s="2">
         <v>49500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>192</v>
@@ -7649,7 +7652,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>130</v>
@@ -7661,13 +7664,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G4" s="2">
         <v>32326550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>192</v>
@@ -7693,7 +7696,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>130</v>
@@ -7705,13 +7708,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="2">
         <v>70000000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>192</v>
@@ -7737,7 +7740,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>130</v>
@@ -7749,13 +7752,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G6" s="2">
         <v>299200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>192</v>
@@ -7781,7 +7784,7 @@
         <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>130</v>
@@ -7793,13 +7796,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G7" s="2">
         <v>10367280</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>192</v>
@@ -7825,7 +7828,7 @@
         <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>130</v>
@@ -7837,13 +7840,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G8" s="2">
         <v>4917280</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>192</v>
@@ -7879,22 +7882,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1">
         <v>95000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7902,22 +7905,22 @@
         <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2">
         <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7925,22 +7928,22 @@
         <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2">
         <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="274">
   <si>
     <t>name</t>
   </si>
@@ -749,49 +749,58 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行古亭支庫</t>
   </si>
   <si>
+    <t>陽信商業銀行永和分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行新和分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行石牌分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行石脾分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行社子分行</t>
+  </si>
+  <si>
+    <t>華泰商業銀行營業部</t>
+  </si>
+  <si>
+    <t>板信商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行復興分行</t>
+  </si>
+  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>陽信商業銀行永和分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行新和分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行石牌分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行石脾分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行社子分行</t>
-  </si>
-  <si>
-    <t>華泰商業銀行營業部</t>
-  </si>
-  <si>
-    <t>板信商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行復興分行</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>陽信商銀</t>
@@ -7143,13 +7152,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
@@ -7160,349 +7169,687 @@
         <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>58260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>58260</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1278251</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>2247864</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>552213</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2359642</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>4716527</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>97297</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>20352</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>764</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>548910</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>310074</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>3024949</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>15374</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>10315</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>4685</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="2">
-        <v>1885.2</v>
-      </c>
-      <c r="G17" s="2">
         <v>56763</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1384</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="2">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7526,13 +7873,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -7564,7 +7911,7 @@
         <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>129</v>
@@ -7576,13 +7923,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G2" s="2">
         <v>71798920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>192</v>
@@ -7608,7 +7955,7 @@
         <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -7620,13 +7967,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G3" s="2">
         <v>49500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>192</v>
@@ -7652,7 +7999,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>130</v>
@@ -7664,13 +8011,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G4" s="2">
         <v>32326550</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>192</v>
@@ -7696,7 +8043,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>130</v>
@@ -7708,13 +8055,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G5" s="2">
         <v>70000000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>192</v>
@@ -7740,7 +8087,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>130</v>
@@ -7752,13 +8099,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G6" s="2">
         <v>299200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>192</v>
@@ -7784,7 +8131,7 @@
         <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>130</v>
@@ -7796,13 +8143,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G7" s="2">
         <v>10367280</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>192</v>
@@ -7828,7 +8175,7 @@
         <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>130</v>
@@ -7840,13 +8187,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G8" s="2">
         <v>4917280</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>192</v>
@@ -7882,22 +8229,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1">
         <v>95000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7905,22 +8252,22 @@
         <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2">
         <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7928,22 +8275,22 @@
         <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E3" s="2">
         <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
+++ b/legislator/property/output/normal/薛凌_2011-11-14_財產申報表_tmp7f9c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="277">
   <si>
     <t>name</t>
   </si>
@@ -821,25 +821,34 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>土地抵押權</t>
   </si>
   <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>華泰銀行臺北市長安東路</t>
   </si>
   <si>
+    <t>合作金庫臺北市和平東路</t>
+  </si>
+  <si>
     <t>99年11月05日</t>
   </si>
   <si>
+    <t>99年06月30日</t>
+  </si>
+  <si>
     <t>抵押借款</t>
   </si>
   <si>
-    <t>房貸</t>
-  </si>
-  <si>
-    <t>合作金庫臺北市和平東路</t>
-  </si>
-  <si>
-    <t>99年06月30日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -8221,61 +8230,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="1">
-        <v>95000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E2" s="2">
         <v>95000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>275</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1384</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>129</v>
@@ -8287,10 +8338,31 @@
         <v>32800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1384</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="2">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
